--- a/Ecopulpers/Charts/Value Added Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Value Added Change by Activities.xlsx
@@ -477,25 +477,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0001348013837212056</v>
+        <v>-1.071334281732561e-05</v>
       </c>
       <c r="D2">
-        <v>0.00100494768704084</v>
+        <v>-0.0001650334161240608</v>
       </c>
       <c r="E2">
-        <v>0.0006225741012621437</v>
+        <v>-0.0001426855596946552</v>
       </c>
       <c r="F2">
-        <v>0.01072634118104819</v>
+        <v>-0.003070877748541534</v>
       </c>
       <c r="G2">
-        <v>0.002808398170075379</v>
+        <v>3.007947816513479e-05</v>
       </c>
       <c r="H2">
-        <v>0.001970171550927334</v>
+        <v>-0.0005184970068512484</v>
       </c>
       <c r="I2">
-        <v>0.0008948048066583578</v>
+        <v>9.621086064726114e-06</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -512,22 +512,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.120354271184624e-08</v>
+        <v>-0.001962560461890916</v>
       </c>
       <c r="D3">
-        <v>9.825713853206252e-07</v>
+        <v>-0.03766111258573801</v>
       </c>
       <c r="E3">
-        <v>5.897342423122609e-07</v>
+        <v>-0.02260318227126845</v>
       </c>
       <c r="F3">
-        <v>1.055700687284116e-05</v>
+        <v>-0.4046391726733418</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.792308783551562e-06</v>
+        <v>0.02817706168389122</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.003443334210300918</v>
+        <v>-3.563832137842837e-05</v>
       </c>
       <c r="D4">
-        <v>0.01035852386404789</v>
+        <v>-0.0008140913123497739</v>
       </c>
       <c r="E4">
-        <v>0.02536669611243851</v>
+        <v>-0.0004917006808682345</v>
       </c>
       <c r="F4">
-        <v>0.0002923189606226515</v>
+        <v>-0.01153543055988848</v>
       </c>
       <c r="G4">
-        <v>2.731949389126384e-05</v>
+        <v>2.283195499330759e-07</v>
       </c>
       <c r="H4">
-        <v>0.001547841645844746</v>
+        <v>-0.001805316118407063</v>
       </c>
       <c r="I4">
-        <v>0.06362931323332711</v>
+        <v>-8.562783477827907e-07</v>
       </c>
       <c r="J4">
-        <v>0.005235147860710858</v>
+        <v>-0.001606699574040249</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>5.672690711435279e-08</v>
+        <v>-0.000109858929533857</v>
       </c>
       <c r="E5">
-        <v>7.605093849065269e-08</v>
+        <v>-0.0001472824080792634</v>
       </c>
       <c r="F5">
-        <v>1.199976818897994e-06</v>
+        <v>-0.00232389871871419</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.778350298536679e-07</v>
+        <v>-0.0003444004579478133</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.268648762584234e-07</v>
+        <v>-0.0002456899079561481</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0007763048313302715</v>
+        <v>-2.330156348762102e-05</v>
       </c>
       <c r="D6">
-        <v>0.1337096096942678</v>
+        <v>-0.0002626126079121605</v>
       </c>
       <c r="E6">
-        <v>0.1714062645350728</v>
+        <v>-0.0002458322342135943</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.307383579012467</v>
+        <v>-0.0007632541237398982</v>
       </c>
       <c r="J6">
-        <v>0.1150458718945148</v>
+        <v>-5.555906500376295e-05</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.183008392666764e-05</v>
+        <v>3.139756081793621e-07</v>
       </c>
       <c r="D7">
-        <v>3.051986228047397e-05</v>
+        <v>2.290813547745074e-07</v>
       </c>
       <c r="E7">
-        <v>0.0001540864210901299</v>
+        <v>1.156568970372973e-06</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.02846816897525452</v>
+        <v>0.0002136813964170869</v>
       </c>
       <c r="J7">
-        <v>0.003004917151238678</v>
+        <v>2.255483605040354e-05</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004140236893916599</v>
+        <v>-7.769173043925548e-05</v>
       </c>
       <c r="D8">
-        <v>0.003012679709573694</v>
+        <v>-5.653306880049058e-05</v>
       </c>
       <c r="E8">
-        <v>0.01518164657403744</v>
+        <v>-0.0002848842750609037</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.04049354469074169</v>
+        <v>-0.0007598631746077444</v>
       </c>
       <c r="J8">
-        <v>0.003804526594040053</v>
+        <v>-7.139211152207281e-05</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1.512486848794765e-06</v>
+        <v>-7.559567575299297e-05</v>
       </c>
       <c r="D9">
-        <v>1.103433301234418e-06</v>
+        <v>-5.515067638839355e-05</v>
       </c>
       <c r="E9">
-        <v>5.568997582549854e-06</v>
+        <v>-0.0002783437549283008</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.593479303794083e-05</v>
+        <v>-0.001738401459533634</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02455113958544429</v>
+        <v>-2.68849917119951e-05</v>
       </c>
       <c r="D10">
-        <v>0.01422327636474638</v>
+        <v>-1.55753532453673e-05</v>
       </c>
       <c r="E10">
-        <v>0.002927994454728896</v>
+        <v>-3.20633216688293e-06</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1068848770430736</v>
+        <v>-0.0001170454415841959</v>
       </c>
       <c r="J10">
-        <v>0.008637831008385237</v>
+        <v>-9.458950444241054e-06</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01487809321626089</v>
+        <v>-0.0003461836604401469</v>
       </c>
       <c r="D11">
-        <v>0.03926782499033026</v>
+        <v>0.009145870921202004</v>
       </c>
       <c r="E11">
-        <v>0.04609605574557091</v>
+        <v>-0.001245402207132429</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2183629277817067</v>
+        <v>-0.01164106442593038</v>
       </c>
       <c r="J11">
-        <v>0.009680736610004678</v>
+        <v>-0.0002599117869976908</v>
       </c>
       <c r="K11">
         <v>0</v>

--- a/Ecopulpers/Charts/Value Added Change by Activities.xlsx
+++ b/Ecopulpers/Charts/Value Added Change by Activities.xlsx
@@ -477,25 +477,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1.071334281732561e-05</v>
+        <v>-0.001038695952956914</v>
       </c>
       <c r="D2">
-        <v>-0.0001650334161240608</v>
+        <v>-0.01600057219184237</v>
       </c>
       <c r="E2">
-        <v>-0.0001426855596946552</v>
+        <v>-0.01383385043300223</v>
       </c>
       <c r="F2">
-        <v>-0.003070877748541534</v>
+        <v>-0.2977330752182752</v>
       </c>
       <c r="G2">
-        <v>3.007947816513479e-05</v>
+        <v>0.002916539466241375</v>
       </c>
       <c r="H2">
-        <v>-0.0005184970068512484</v>
+        <v>-0.05027020654233638</v>
       </c>
       <c r="I2">
-        <v>9.621086064726114e-06</v>
+        <v>0.0009328710948466323</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -512,22 +512,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.001962560461890916</v>
+        <v>-0.1902780891161342</v>
       </c>
       <c r="D3">
-        <v>-0.03766111258573801</v>
+        <v>-3.651395549482004</v>
       </c>
       <c r="E3">
-        <v>-0.02260318227126845</v>
+        <v>-2.191468958199948</v>
       </c>
       <c r="F3">
-        <v>-0.4046391726733418</v>
+        <v>-39.23138677816314</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02817706168389122</v>
+        <v>2.728091192841021</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -547,28 +547,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>-3.563832137842837e-05</v>
+        <v>-0.003455267146364349</v>
       </c>
       <c r="D4">
-        <v>-0.0008140913123497739</v>
+        <v>-0.07892941749014426</v>
       </c>
       <c r="E4">
-        <v>-0.0004917006808682345</v>
+        <v>-0.04767234976316104</v>
       </c>
       <c r="F4">
-        <v>-0.01153543055988848</v>
+        <v>-1.118406115856487</v>
       </c>
       <c r="G4">
-        <v>2.283195499330759e-07</v>
+        <v>2.213805419160053e-05</v>
       </c>
       <c r="H4">
-        <v>-0.001805316118407063</v>
+        <v>-0.1750327392073814</v>
       </c>
       <c r="I4">
-        <v>-8.562783477827907e-07</v>
+        <v>-8.300338231492788e-05</v>
       </c>
       <c r="J4">
-        <v>-0.001606699574040249</v>
+        <v>-0.1557759204224567</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -585,25 +585,25 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.000109858929533857</v>
+        <v>-0.01065126268525773</v>
       </c>
       <c r="E5">
-        <v>-0.0001472824080792634</v>
+        <v>-0.01427961863228688</v>
       </c>
       <c r="F5">
-        <v>-0.00232389871871419</v>
+        <v>-0.2253112770381449</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.0003444004579478133</v>
+        <v>-0.03339100210155266</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.0002456899079561481</v>
+        <v>-0.02382061940124913</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -617,13 +617,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-2.330156348762102e-05</v>
+        <v>-0.002259173036691209</v>
       </c>
       <c r="D6">
-        <v>-0.0002626126079121605</v>
+        <v>-0.02546117937163217</v>
       </c>
       <c r="E6">
-        <v>-0.0002458322342135943</v>
+        <v>-0.02383432661008555</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -635,10 +635,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-0.0007632541237398982</v>
+        <v>-0.07400143065024167</v>
       </c>
       <c r="J6">
-        <v>-5.555906500376295e-05</v>
+        <v>-0.005386661128795822</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -652,13 +652,13 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.139756081793621e-07</v>
+        <v>3.042886328330496e-05</v>
       </c>
       <c r="D7">
-        <v>2.290813547745074e-07</v>
+        <v>2.220135915464994e-05</v>
       </c>
       <c r="E7">
-        <v>1.156568970372973e-06</v>
+        <v>0.0001120885785610426</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0002136813964170869</v>
+        <v>0.02070887600712012</v>
       </c>
       <c r="J7">
-        <v>2.255483605040354e-05</v>
+        <v>0.002185896000355569</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -687,13 +687,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-7.769173043925548e-05</v>
+        <v>-0.007532573839171164</v>
       </c>
       <c r="D8">
-        <v>-5.653306880049058e-05</v>
+        <v>-0.005481143451561366</v>
       </c>
       <c r="E8">
-        <v>-0.0002848842750609037</v>
+        <v>-0.02762085277481674</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.0007598631746077444</v>
+        <v>-0.07367226153291995</v>
       </c>
       <c r="J8">
-        <v>-7.139211152207281e-05</v>
+        <v>-0.006921796556753179</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>-7.559567575299297e-05</v>
+        <v>-0.007329303108889462</v>
       </c>
       <c r="D9">
-        <v>-5.515067638839355e-05</v>
+        <v>-0.005347078649890591</v>
       </c>
       <c r="E9">
-        <v>-0.0002783437549283008</v>
+        <v>-0.02698654027113889</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-0.001738401459533634</v>
+        <v>-0.1685449741066805</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -757,13 +757,13 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-2.68849917119951e-05</v>
+        <v>-0.002606588845992519</v>
       </c>
       <c r="D10">
-        <v>-1.55753532453673e-05</v>
+        <v>-0.001510081983724376</v>
       </c>
       <c r="E10">
-        <v>-3.20633216688293e-06</v>
+        <v>-0.0003108644982603437</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -775,10 +775,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>-0.0001170454415841959</v>
+        <v>-0.01134794281824725</v>
       </c>
       <c r="J10">
-        <v>-9.458950444241054e-06</v>
+        <v>-0.0009170765320050123</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -792,13 +792,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.0003461836604401469</v>
+        <v>-0.03355990815907717</v>
       </c>
       <c r="D11">
-        <v>0.009145870921202004</v>
+        <v>0.8868028017459437</v>
       </c>
       <c r="E11">
-        <v>-0.001245402207132429</v>
+        <v>-0.1207279756199569</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -810,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-0.01164106442593038</v>
+        <v>-1.128603667253628</v>
       </c>
       <c r="J11">
-        <v>-0.0002599117869976908</v>
+        <v>-0.02519565066904761</v>
       </c>
       <c r="K11">
         <v>0</v>
